--- a/src/main/java/HistogramOfDistances.xlsx
+++ b/src/main/java/HistogramOfDistances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomho\Documents\IdeaProjects\SubjectBiometricsRecognition\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11120182-A1D3-44CD-875E-0B162F1B363D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFCABA0-739C-4F18-B627-8B6FBFB792C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7ECDD14B-7447-4FF7-8921-FB7CBA95ACEE}"/>
   </bookViews>
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B6EB70-BAA5-4226-9107-9B24292700B6}">
   <dimension ref="A1:O3851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
